--- a/relatorios/repasses_liberados/dentistas/70260922439/2023-08-25_relatorio_repasses_70260922439.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70260922439/2023-08-25_relatorio_repasses_70260922439.xlsx
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -15782,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>1</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N373">
-        <v>172.2</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/relatorios/repasses_liberados/dentistas/70260922439/2023-08-25_relatorio_repasses_70260922439.xlsx
+++ b/relatorios/repasses_liberados/dentistas/70260922439/2023-08-25_relatorio_repasses_70260922439.xlsx
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N68">
-        <v>2.64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3858,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N71">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3990,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N72">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N73">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4078,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4122,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4474,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4518,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4562,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4694,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N88">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N89">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4870,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4914,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N93">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N94">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5002,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N95">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N96">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5090,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5178,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5442,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5530,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5750,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5794,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5838,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5882,10 +5882,10 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5926,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5970,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6014,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N118">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -6058,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N119">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9138,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N189">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9226,10 +9226,10 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9270,10 +9270,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9314,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="M193">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N193">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9358,10 +9358,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N194">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9446,10 +9446,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9490,10 +9490,10 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9534,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9578,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9622,10 +9622,10 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9666,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9710,10 +9710,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9754,10 +9754,10 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N203">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9798,10 +9798,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N204">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9842,10 +9842,10 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9886,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N206">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9930,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N207">
-        <v>2.64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10018,10 +10018,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -10062,10 +10062,10 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N210">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10106,10 +10106,10 @@
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N211">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -10150,10 +10150,10 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>18.42</v>
+        <v>13.815</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10194,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>19.736</v>
+        <v>14.802</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N214">
-        <v>2.14</v>
+        <v>2.675</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10326,10 +10326,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10370,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10414,10 +10414,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10458,10 +10458,10 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N219">
-        <v>2.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10502,10 +10502,10 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N220">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10546,10 +10546,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10590,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10634,10 +10634,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10722,10 +10722,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N225">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -10766,10 +10766,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10810,10 +10810,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
-        <v>7.96</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -10854,10 +10854,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -10942,10 +10942,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11030,10 +11030,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11118,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="N234">
-        <v>4</v>
+        <v>5.300000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11206,10 +11206,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11250,10 +11250,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
-        <v>62.504</v>
+        <v>46.87799999999999</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11338,10 +11338,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11426,10 +11426,10 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N242">
-        <v>2.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -11514,10 +11514,10 @@
         <v>0</v>
       </c>
       <c r="M243">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N243">
-        <v>2.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -11558,10 +11558,10 @@
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N244">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11646,10 +11646,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11690,10 +11690,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -11734,10 +11734,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N248">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -11778,10 +11778,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -11822,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -11998,10 +11998,10 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12042,10 +12042,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12086,10 +12086,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12130,10 +12130,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12174,10 +12174,10 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N258">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12218,10 +12218,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
-        <v>19.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12262,10 +12262,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
-        <v>2.14</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12306,10 +12306,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -12350,10 +12350,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12394,10 +12394,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12438,10 +12438,10 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N264">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12482,10 +12482,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12526,10 +12526,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N266">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12570,10 +12570,10 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N267">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12614,10 +12614,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12658,10 +12658,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12702,10 +12702,10 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12746,10 +12746,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12790,10 +12790,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -12834,10 +12834,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -12878,10 +12878,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12922,10 +12922,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N275">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -12966,10 +12966,10 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13010,10 +13010,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13054,10 +13054,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13098,10 +13098,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13142,10 +13142,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N280">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13186,10 +13186,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13230,10 +13230,10 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N282">
-        <v>2.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13274,10 +13274,10 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N283">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13362,10 +13362,10 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N285">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="286" spans="1:14">
@@ -13406,10 +13406,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N286">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13450,10 +13450,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13494,10 +13494,10 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13538,10 +13538,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13582,10 +13582,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13626,10 +13626,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13714,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N318">
         <v>0</v>
@@ -14858,7 +14858,7 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -15430,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -15650,7 +15650,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -16046,7 +16046,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="M353">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -16662,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -16706,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17102,10 +17102,10 @@
         <v>1</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N370">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -17234,10 +17234,10 @@
         <v>1</v>
       </c>
       <c r="M373">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N373">
-        <v>287</v>
+        <v>172.2</v>
       </c>
     </row>
   </sheetData>
